--- a/data/long_dif/P18_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_5-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>31,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38,04%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,83; 26,62</t>
+          <t>11,36; 25,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,61; 45,5</t>
+          <t>21,66; 43,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,77; 42,96</t>
+          <t>23,11; 43,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,3</t>
+          <t>10,46; 33,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,52; 52,83</t>
+          <t>28,02; 59,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 43,05</t>
+          <t>3,17; 12,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 18,15</t>
+          <t>34,08; 53,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,06; 45,89</t>
+          <t>24,7; 41,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,26; 40,18</t>
+          <t>23,72; 43,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 42,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 17,05</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30,85; 45,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 39,07</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 34,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 47,03</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>35,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>46,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,83; 42,77</t>
+          <t>27,22; 44,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,95; 48,07</t>
+          <t>29,75; 51,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 47,36</t>
+          <t>27,3; 47,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 46,98</t>
+          <t>43,0; 70,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,17; 46,57</t>
+          <t>21,09; 50,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,94; 51,44</t>
+          <t>29,54; 47,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,28; 41,5</t>
+          <t>27,5; 45,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,94; 44,18</t>
+          <t>34,17; 50,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,5; 46,78</t>
+          <t>26,26; 45,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27,4; 54,7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 43,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30,75; 45,45</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,16; 46,15</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>38,49; 55,03</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>27,9; 48,18</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,42%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>32,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>51,1%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,02%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,36; 55,86</t>
+          <t>38,8; 55,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 40,58</t>
+          <t>18,33; 38,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 41,74</t>
+          <t>21,43; 40,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,54; 64,13</t>
+          <t>12,89; 36,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 28,76</t>
+          <t>10,68; 37,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,46; 31,61</t>
+          <t>45,46; 63,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,88; 58,61</t>
+          <t>13,99; 28,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 31,62</t>
+          <t>19,7; 35,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,93; 34,48</t>
+          <t>22,65; 42,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19,54; 45,54</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>44,24; 57,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 30,94</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 35,57</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20,66; 35,85</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 36,84</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 23,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,5; 40,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,48; 43,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 18,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 49,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,0; 42,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 36,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>46,45%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>35,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,62; 59,0</t>
+          <t>9,26; 22,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,13; 57,06</t>
+          <t>20,71; 44,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,59; 49,7</t>
+          <t>23,52; 43,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,81; 39,7</t>
+          <t>12,28; 32,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,96; 48,69</t>
+          <t>10,62; 42,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,9; 47,91</t>
+          <t>6,14; 17,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,74; 47,11</t>
+          <t>31,88; 49,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,16; 49,5</t>
+          <t>19,26; 31,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,27; 46,7</t>
+          <t>26,84; 44,53</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,58; 45,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 18,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,43; 42,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 35,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,57; 35,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 40,01</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>41,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,32%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>47,22%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>36,12%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,65; 49,23</t>
+          <t>34,65; 60,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 41,9</t>
+          <t>33,86; 56,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,18; 41,17</t>
+          <t>30,34; 50,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>48,72; 66,0</t>
+          <t>37,8; 69,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,91; 26,94</t>
+          <t>23,4; 67,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,04; 42,08</t>
+          <t>23,37; 38,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,08; 54,81</t>
+          <t>31,67; 49,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 32,42</t>
+          <t>32,76; 47,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 39,59</t>
+          <t>32,59; 50,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 40,13</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31,37; 47,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35,56; 49,57</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>33,32; 46,51</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38,59; 62,06</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>26,01; 52,48</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48,06%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>30,13%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>34,85%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 16,92</t>
+          <t>27,77; 49,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,33; 50,25</t>
+          <t>15,71; 42,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,98; 32,63</t>
+          <t>17,3; 43,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 29,72</t>
+          <t>15,34; 45,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,72; 49,22</t>
+          <t>16,42; 57,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,31; 34,26</t>
+          <t>50,4; 66,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 21,44</t>
+          <t>13,44; 27,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,23; 47,68</t>
+          <t>28,31; 41,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,18; 31,44</t>
+          <t>15,89; 30,9</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 47,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 55,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 33,61</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 40,09</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 35,97</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 48,38</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,04; 50,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,16; 49,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,79; 58,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,5; 34,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,41; 39,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,78; 47,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,38; 40,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,74; 42,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,72; 50,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>28,37%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33,69%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15,69%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>42,09%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,31; 60,38</t>
+          <t>6,94; 16,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,33; 28,1</t>
+          <t>31,4; 50,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,87; 33,88</t>
+          <t>20,39; 33,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>41,99; 56,08</t>
+          <t>26,79; 42,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,48; 30,02</t>
+          <t>22,43; 40,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,83; 35,59</t>
+          <t>15,56; 26,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>43,53; 57,05</t>
+          <t>37,97; 51,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,86; 26,75</t>
+          <t>23,36; 33,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,51; 32,68</t>
+          <t>22,43; 34,54</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 43,26</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 19,27</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>36,56; 48,01</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 32,01</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26,76; 36,78</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>25,92; 39,39</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>43,15%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,75%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>42,75%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>44,32%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>41,59%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>43,57%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,0; 22,33</t>
+          <t>26,77; 44,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>35,71; 51,68</t>
+          <t>30,53; 48,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>22,53; 35,35</t>
+          <t>39,66; 55,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,2; 21,14</t>
+          <t>31,49; 48,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>33,13; 45,39</t>
+          <t>33,86; 54,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,04; 31,99</t>
+          <t>23,47; 35,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,26; 19,96</t>
+          <t>27,12; 39,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>35,75; 46,25</t>
+          <t>36,17; 47,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>23,72; 31,33</t>
+          <t>36,4; 49,78</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,77; 52,1</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>26,72; 36,92</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>30,7; 41,68</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>39,39; 49,46</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>36,37; 47,33</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>36,33; 50,9</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>51,39%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>30,42%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>28,88%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>27,15; 39,5</t>
+          <t>43,84; 62,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>31,03; 45,99</t>
+          <t>14,95; 28,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,79; 48,11</t>
+          <t>19,89; 34,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29,19; 41,04</t>
+          <t>18,23; 37,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,66; 44,78</t>
+          <t>16,63; 35,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,92; 53,53</t>
+          <t>44,84; 58,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>29,73; 38,37</t>
+          <t>17,56; 28,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>34,01; 43,46</t>
+          <t>25,02; 35,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,03; 48,82</t>
+          <t>23,04; 35,81</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 32,72</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>47,13; 58,36</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,13; 26,52</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 33,61</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>22,25; 32,79</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 32,52</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>49,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43,81; 57,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,88; 24,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,35; 36,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>42,87; 55,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>17,7; 28,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,3; 31,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>44,86; 54,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>17,04; 24,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>40,03%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>33,27%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,0; 25,81</t>
+          <t>12,47; 22,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>33,27; 49,67</t>
+          <t>34,72; 50,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>25,31; 38,38</t>
+          <t>22,02; 33,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,76; 24,68</t>
+          <t>21,73; 42,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>30,42; 47,37</t>
+          <t>25,6; 47,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>24,91; 37,78</t>
+          <t>12,08; 21,82</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,21; 23,26</t>
+          <t>31,7; 44,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>34,95; 46,31</t>
+          <t>21,57; 31,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,73; 35,77</t>
+          <t>20,0; 32,39</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>22,26; 38,36</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 20,51</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>35,46; 45,1</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 31,22</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>23,36; 35,38</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>27,75; 41,34</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>41,75%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>44,33%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>49,56%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>38,14%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>45,33%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>46,97%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>41,51%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25,41; 40,58</t>
+          <t>26,59; 39,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>27,53; 43,18</t>
+          <t>33,2; 47,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>34,74; 48,95</t>
+          <t>36,33; 50,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>31,42; 47,66</t>
+          <t>35,57; 52,58</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>29,87; 45,64</t>
+          <t>34,27; 55,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,52; 46,29</t>
+          <t>29,17; 40,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,97; 42,1</t>
+          <t>32,66; 45,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>29,87; 41,22</t>
+          <t>41,86; 53,69</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>35,68; 45,61</t>
+          <t>43,16; 56,67</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>29,57; 47,6</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>29,71; 38,91</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>34,61; 44,23</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>40,98; 50,02</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>41,08; 52,22</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>34,65; 48,94</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>48,44%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>24,59%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>32,12%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>49,32%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>20,57%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>25,22%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>25,23%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>39,81; 57,58</t>
+          <t>42,98; 56,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17,34; 31,74</t>
+          <t>12,82; 23,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>20,99; 33,79</t>
+          <t>23,04; 37,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>34,88; 51,43</t>
+          <t>18,83; 33,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>18,02; 32,34</t>
+          <t>12,3; 27,53</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>24,01; 36,99</t>
+          <t>42,03; 54,75</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>40,21; 52,05</t>
+          <t>17,58; 28,58</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>19,04; 29,44</t>
+          <t>21,1; 31,12</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>24,05; 33,25</t>
+          <t>19,0; 31,62</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>24,76; 40,72</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>44,76; 54,12</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>16,69; 24,69</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 31,9</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 30,02</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 31,2</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>12,03; 26,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>19,16; 37,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>23,25; 41,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,29; 29,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,06; 45,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>21,99; 37,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,93; 26,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>26,13; 39,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>24,74; 36,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>51,97%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>18,31%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>40,19%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>30,75%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>26,41; 50,13</t>
+          <t>12,54; 25,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>41,22; 66,59</t>
+          <t>34,08; 50,33</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>28,79; 45,96</t>
+          <t>25,12; 37,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>22,38; 38,22</t>
+          <t>17,74; 33,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>28,87; 50,09</t>
+          <t>25,89; 46,1</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>38,57; 57,0</t>
+          <t>13,15; 24,88</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>26,22; 39,78</t>
+          <t>30,2; 47,44</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>36,28; 53,55</t>
+          <t>24,56; 37,28</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>36,8; 49,98</t>
+          <t>21,24; 37,28</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 37,84</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 22,77</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>34,59; 46,19</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 35,47</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 32,72</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>24,49; 37,99</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>48,82%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>42,82%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>42,9%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>36,1%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>46,22%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>34,79; 56,05</t>
+          <t>25,88; 40,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,67; 30,39</t>
+          <t>27,24; 42,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>23,77; 40,94</t>
+          <t>35,65; 49,38</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>40,23; 58,09</t>
+          <t>31,44; 49,74</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,72; 34,94</t>
+          <t>38,54; 60,4</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>17,19; 30,9</t>
+          <t>32,43; 47,94</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>40,85; 53,9</t>
+          <t>30,06; 46,2</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>17,28; 29,83</t>
+          <t>33,06; 46,82</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,63; 32,72</t>
+          <t>33,5; 52,46</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>34,01; 52,08</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>30,86; 41,4</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 41,96</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>36,18; 45,85</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>34,65; 47,86</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>39,42; 52,94</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>45,58%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>28,47%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>31,76%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,56</t>
+          <t>39,88; 57,05</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>32,51; 40,15</t>
+          <t>16,22; 30,47</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>27,41; 33,89</t>
+          <t>21,04; 33,18</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>14,39; 19,52</t>
+          <t>27,14; 44,49</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>36,97; 43,56</t>
+          <t>8,94; 24,97</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>26,17; 31,6</t>
+          <t>35,0; 50,85</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>14,69; 18,13</t>
+          <t>17,54; 32,43</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>35,75; 40,75</t>
+          <t>23,58; 35,76</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>27,46; 31,82</t>
+          <t>21,87; 37,55</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>20,09; 37,68</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>40,04; 51,74</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 28,75</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 33,22</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 38,1</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 28,87</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>32,84; 40,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>37,68; 45,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>37,48; 45,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>30,01; 36,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>33,56; 40,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>40,89; 46,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>36,35; 41,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>40,05; 44,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>30,23%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>39,07%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>34,44%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>30,79%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>34,42%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>43,1; 51,02</t>
+          <t>13,13; 27,72</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>18,94; 26,44</t>
+          <t>21,02; 38,58</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,0</t>
+          <t>23,84; 41,2</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>47,07; 53,8</t>
+          <t>19,37; 39,82</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>20,15; 26,01</t>
+          <t>24,7; 49,1</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>25,22; 30,44</t>
+          <t>12,29; 25,19</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>46,11; 51,22</t>
+          <t>30,11; 47,03</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>20,64; 25,14</t>
+          <t>23,81; 38,43</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>25,99; 30,37</t>
+          <t>29,67; 50,7</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 52,14</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 23,64</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>28,31; 40,77</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>25,4; 36,36</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>26,95; 41,84</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 47,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>49,53%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>43,16%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>35,81%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>36,65%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>45,99%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>35,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>25,64; 47,56</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>39,54; 62,2</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>30,15; 45,14</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 54,71</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>24,54; 49,11</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 39,81</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>28,79; 45,96</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>38,3; 54,39</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>24,82; 44,05</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>23,26; 48,56</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 39,39</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>34,95; 49,17</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 48,18</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>30,36; 45,67</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 44,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>30,7%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>51,17%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 55,18</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 31,25</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>22,8; 39,21</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 40,15</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 41,16</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>42,85; 59,71</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,12; 34,23</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 30,65</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>18,51; 36,64</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 40,78</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>42,46; 55,0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 29,99</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>21,96; 32,67</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 35,57</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 37,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>31,46%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>32,19%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>15,95%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>38,43%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>32,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 19,15</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,37</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>27,29; 33,54</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 31,55</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 39,02</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 18,05</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>37,28; 43,61</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 31,16</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>28,14; 35,29</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>27,86; 37,29</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 17,6</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>35,95; 41,05</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 31,33</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 31,81</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 36,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>36,07%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>41,18%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>41,6%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>46,07%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>42,3%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>36,76%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>41,14%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>34,69%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>43,56%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>32,04; 40,61</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 45,32</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>37,74; 44,58</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>41,43; 50,73</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>36,85; 47,85</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 36,45</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>33,73; 39,9</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>40,7; 46,42</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>37,86; 44,59</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 42,58</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>32,24; 37,16</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>36,44; 41,37</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>39,98; 44,52</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 46,71</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>36,73; 44,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>22,53%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>26,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>43,5; 51,59</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 26,75</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 32,53</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 31,56</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 30,15</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>48,03; 54,3</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>20,25; 25,75</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>25,49; 30,96</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 30,57</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 33,96</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 51,69</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 25,1</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>26,28; 30,42</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 30,07</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>23,95; 30,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_5-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_5-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
